--- a/BBpinslinks.xlsx
+++ b/BBpinslinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/micropython/DHTmqttNutanixIoT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F39D0B-9A22-C743-ABFF-517C2E0F8FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3825AF-7653-684A-AE7D-475119192B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="28420" windowHeight="17020" xr2:uid="{EBAF659A-9D98-194C-BB6E-5FD8E508ACB8}"/>
   </bookViews>
@@ -440,13 +440,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>657613</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>810013</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>26913</xdr:rowOff>
     </xdr:to>
@@ -471,8 +471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10744200" y="952500"/>
-          <a:ext cx="10058400" cy="7545313"/>
+          <a:off x="11359686" y="944756"/>
+          <a:ext cx="10002644" cy="7631425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B335C54-C40B-9644-BC18-A55BB78B8A16}">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
